--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_6_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_6_square_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[60.41238231519141, 66.90371634936506]</t>
+          <t>[60.40922745835378, 66.90687120620268]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[47.80530939639473, 52.21281833700115]</t>
+          <t>[47.80622801826759, 52.2118997151283]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[59.30463896496691, 68.09316041846184]</t>
+          <t>[59.40096122643557, 67.99683815699318]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[46.832282658499004, 52.441426210985306]</t>
+          <t>[46.832554744032514, 52.441154125451796]</t>
         </is>
       </c>
       <c r="U3" t="n">

--- a/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_6_square_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0/cosinor_6_square_0_.xlsx
@@ -589,7 +589,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[60.40922745835378, 66.90687120620268]</t>
+          <t>[60.36858998125858, 66.94750868329788]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[47.80622801826759, 52.2118997151283]</t>
+          <t>[47.80457019677137, 52.21355753662451]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,7 +670,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[59.40096122643557, 67.99683815699318]</t>
+          <t>[59.536603478504915, 67.86119590492383]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[46.832554744032514, 52.441154125451796]</t>
+          <t>[46.83147304473043, 52.44223582475388]</t>
         </is>
       </c>
       <c r="U3" t="n">
